--- a/natmiOut/OldD0/LR-pairs_lrc2p/Ntng2-Lrrc4.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Ntng2-Lrrc4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.209705123605509</v>
+        <v>11.949039</v>
       </c>
       <c r="H2">
-        <v>9.209705123605509</v>
+        <v>35.847117</v>
       </c>
       <c r="I2">
-        <v>0.3072575221455931</v>
+        <v>0.3580329233804654</v>
       </c>
       <c r="J2">
-        <v>0.3072575221455931</v>
+        <v>0.3580329233804654</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.39338803900532</v>
+        <v>1.456609</v>
       </c>
       <c r="N2">
-        <v>1.39338803900532</v>
+        <v>4.369827</v>
       </c>
       <c r="O2">
-        <v>0.2982790665370197</v>
+        <v>0.3001553107647443</v>
       </c>
       <c r="P2">
-        <v>0.2982790665370197</v>
+        <v>0.3001553107647442</v>
       </c>
       <c r="Q2">
-        <v>12.83269296199793</v>
+        <v>17.405077748751</v>
       </c>
       <c r="R2">
-        <v>12.83269296199793</v>
+        <v>156.645699738759</v>
       </c>
       <c r="S2">
-        <v>0.09164848689206516</v>
+        <v>0.1074654833812735</v>
       </c>
       <c r="T2">
-        <v>0.09164848689206516</v>
+        <v>0.1074654833812734</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.209705123605509</v>
+        <v>11.949039</v>
       </c>
       <c r="H3">
-        <v>9.209705123605509</v>
+        <v>35.847117</v>
       </c>
       <c r="I3">
-        <v>0.3072575221455931</v>
+        <v>0.3580329233804654</v>
       </c>
       <c r="J3">
-        <v>0.3072575221455931</v>
+        <v>0.3580329233804654</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.24090488119578</v>
+        <v>2.339991</v>
       </c>
       <c r="N3">
-        <v>2.24090488119578</v>
+        <v>7.019973</v>
       </c>
       <c r="O3">
-        <v>0.479704861424303</v>
+        <v>0.482188923583271</v>
       </c>
       <c r="P3">
-        <v>0.479704861424303</v>
+        <v>0.4821889235832709</v>
       </c>
       <c r="Q3">
-        <v>20.63807316586137</v>
+        <v>27.960643718649</v>
       </c>
       <c r="R3">
-        <v>20.63807316586137</v>
+        <v>251.645793467841</v>
       </c>
       <c r="S3">
-        <v>0.1473929270824264</v>
+        <v>0.1726395099321983</v>
       </c>
       <c r="T3">
-        <v>0.1473929270824264</v>
+        <v>0.1726395099321983</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.209705123605509</v>
+        <v>11.949039</v>
       </c>
       <c r="H4">
-        <v>9.209705123605509</v>
+        <v>35.847117</v>
       </c>
       <c r="I4">
-        <v>0.3072575221455931</v>
+        <v>0.3580329233804654</v>
       </c>
       <c r="J4">
-        <v>0.3072575221455931</v>
+        <v>0.3580329233804654</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.03713124369471</v>
+        <v>1.056251</v>
       </c>
       <c r="N4">
-        <v>1.03713124369471</v>
+        <v>3.168753</v>
       </c>
       <c r="O4">
-        <v>0.2220160720386773</v>
+        <v>0.2176557656519848</v>
       </c>
       <c r="P4">
-        <v>0.2220160720386773</v>
+        <v>0.2176557656519848</v>
       </c>
       <c r="Q4">
-        <v>9.551672928906525</v>
+        <v>12.621184392789</v>
       </c>
       <c r="R4">
-        <v>9.551672928906525</v>
+        <v>113.590659535101</v>
       </c>
       <c r="S4">
-        <v>0.06821610817110148</v>
+        <v>0.07792793006699361</v>
       </c>
       <c r="T4">
-        <v>0.06821610817110148</v>
+        <v>0.0779279300669936</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.0971787379495</v>
+        <v>13.30334766666667</v>
       </c>
       <c r="H5">
-        <v>13.0971787379495</v>
+        <v>39.910043</v>
       </c>
       <c r="I5">
-        <v>0.4369528266226261</v>
+        <v>0.3986125123403949</v>
       </c>
       <c r="J5">
-        <v>0.4369528266226261</v>
+        <v>0.3986125123403949</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.39338803900532</v>
+        <v>1.456609</v>
       </c>
       <c r="N5">
-        <v>1.39338803900532</v>
+        <v>4.369827</v>
       </c>
       <c r="O5">
-        <v>0.2982790665370197</v>
+        <v>0.3001553107647443</v>
       </c>
       <c r="P5">
-        <v>0.2982790665370197</v>
+        <v>0.3001553107647442</v>
       </c>
       <c r="Q5">
-        <v>18.24945219817362</v>
+        <v>19.37777594139567</v>
       </c>
       <c r="R5">
-        <v>18.24945219817362</v>
+        <v>174.399983472561</v>
       </c>
       <c r="S5">
-        <v>0.1303338812457091</v>
+        <v>0.1196456625162467</v>
       </c>
       <c r="T5">
-        <v>0.1303338812457091</v>
+        <v>0.1196456625162467</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.0971787379495</v>
+        <v>13.30334766666667</v>
       </c>
       <c r="H6">
-        <v>13.0971787379495</v>
+        <v>39.910043</v>
       </c>
       <c r="I6">
-        <v>0.4369528266226261</v>
+        <v>0.3986125123403949</v>
       </c>
       <c r="J6">
-        <v>0.4369528266226261</v>
+        <v>0.3986125123403949</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.24090488119578</v>
+        <v>2.339991</v>
       </c>
       <c r="N6">
-        <v>2.24090488119578</v>
+        <v>7.019973</v>
       </c>
       <c r="O6">
-        <v>0.479704861424303</v>
+        <v>0.482188923583271</v>
       </c>
       <c r="P6">
-        <v>0.479704861424303</v>
+        <v>0.4821889235832709</v>
       </c>
       <c r="Q6">
-        <v>29.34953176376462</v>
+        <v>31.129713809871</v>
       </c>
       <c r="R6">
-        <v>29.34953176376462</v>
+        <v>280.167424288839</v>
       </c>
       <c r="S6">
-        <v>0.2096083951439643</v>
+        <v>0.1922065382522384</v>
       </c>
       <c r="T6">
-        <v>0.2096083951439643</v>
+        <v>0.1922065382522383</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.0971787379495</v>
+        <v>13.30334766666667</v>
       </c>
       <c r="H7">
-        <v>13.0971787379495</v>
+        <v>39.910043</v>
       </c>
       <c r="I7">
-        <v>0.4369528266226261</v>
+        <v>0.3986125123403949</v>
       </c>
       <c r="J7">
-        <v>0.4369528266226261</v>
+        <v>0.3986125123403949</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.03713124369471</v>
+        <v>1.056251</v>
       </c>
       <c r="N7">
-        <v>1.03713124369471</v>
+        <v>3.168753</v>
       </c>
       <c r="O7">
-        <v>0.2220160720386773</v>
+        <v>0.2176557656519848</v>
       </c>
       <c r="P7">
-        <v>0.2220160720386773</v>
+        <v>0.2176557656519848</v>
       </c>
       <c r="Q7">
-        <v>13.58349327338148</v>
+        <v>14.05167427626433</v>
       </c>
       <c r="R7">
-        <v>13.58349327338148</v>
+        <v>126.465068486379</v>
       </c>
       <c r="S7">
-        <v>0.09701055023295263</v>
+        <v>0.0867603115719099</v>
       </c>
       <c r="T7">
-        <v>0.09701055023295263</v>
+        <v>0.08676031157190989</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.66701249513538</v>
+        <v>8.121747999999998</v>
       </c>
       <c r="H8">
-        <v>7.66701249513538</v>
+        <v>24.365244</v>
       </c>
       <c r="I8">
-        <v>0.2557896512317808</v>
+        <v>0.2433545642791397</v>
       </c>
       <c r="J8">
-        <v>0.2557896512317808</v>
+        <v>0.2433545642791398</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.39338803900532</v>
+        <v>1.456609</v>
       </c>
       <c r="N8">
-        <v>1.39338803900532</v>
+        <v>4.369827</v>
       </c>
       <c r="O8">
-        <v>0.2982790665370197</v>
+        <v>0.3001553107647443</v>
       </c>
       <c r="P8">
-        <v>0.2982790665370197</v>
+        <v>0.3001553107647442</v>
       </c>
       <c r="Q8">
-        <v>10.68312350562597</v>
+        <v>11.830211232532</v>
       </c>
       <c r="R8">
-        <v>10.68312350562597</v>
+        <v>106.471901092788</v>
       </c>
       <c r="S8">
-        <v>0.07629669839924541</v>
+        <v>0.07304416486722413</v>
       </c>
       <c r="T8">
-        <v>0.07629669839924541</v>
+        <v>0.07304416486722412</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.66701249513538</v>
+        <v>8.121747999999998</v>
       </c>
       <c r="H9">
-        <v>7.66701249513538</v>
+        <v>24.365244</v>
       </c>
       <c r="I9">
-        <v>0.2557896512317808</v>
+        <v>0.2433545642791397</v>
       </c>
       <c r="J9">
-        <v>0.2557896512317808</v>
+        <v>0.2433545642791398</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.24090488119578</v>
+        <v>2.339991</v>
       </c>
       <c r="N9">
-        <v>2.24090488119578</v>
+        <v>7.019973</v>
       </c>
       <c r="O9">
-        <v>0.479704861424303</v>
+        <v>0.482188923583271</v>
       </c>
       <c r="P9">
-        <v>0.479704861424303</v>
+        <v>0.4821889235832709</v>
       </c>
       <c r="Q9">
-        <v>17.18104572453791</v>
+        <v>19.004817224268</v>
       </c>
       <c r="R9">
-        <v>17.18104572453791</v>
+        <v>171.043355018412</v>
       </c>
       <c r="S9">
-        <v>0.1227035391979122</v>
+        <v>0.1173428753988343</v>
       </c>
       <c r="T9">
-        <v>0.1227035391979122</v>
+        <v>0.1173428753988343</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.66701249513538</v>
+        <v>8.121747999999998</v>
       </c>
       <c r="H10">
-        <v>7.66701249513538</v>
+        <v>24.365244</v>
       </c>
       <c r="I10">
-        <v>0.2557896512317808</v>
+        <v>0.2433545642791397</v>
       </c>
       <c r="J10">
-        <v>0.2557896512317808</v>
+        <v>0.2433545642791398</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.03713124369471</v>
+        <v>1.056251</v>
       </c>
       <c r="N10">
-        <v>1.03713124369471</v>
+        <v>3.168753</v>
       </c>
       <c r="O10">
-        <v>0.2220160720386773</v>
+        <v>0.2176557656519848</v>
       </c>
       <c r="P10">
-        <v>0.2220160720386773</v>
+        <v>0.2176557656519848</v>
       </c>
       <c r="Q10">
-        <v>7.951698204502638</v>
+        <v>8.578604446747999</v>
       </c>
       <c r="R10">
-        <v>7.951698204502638</v>
+        <v>77.20744002073199</v>
       </c>
       <c r="S10">
-        <v>0.05678941363462319</v>
+        <v>0.05296752401308132</v>
       </c>
       <c r="T10">
-        <v>0.05678941363462319</v>
+        <v>0.05296752401308131</v>
       </c>
     </row>
   </sheetData>
